--- a/WebContent/Document/テーブル定義書.xlsx
+++ b/WebContent/Document/テーブル定義書.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="199">
   <si>
     <t>テーブル名</t>
     <rPh sb="4" eb="5">
@@ -398,10 +398,6 @@
   </si>
   <si>
     <t>varchar</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -514,7 +510,7 @@
   </si>
   <si>
     <t>郭</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="0" eb="1">
       <t>アラキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -754,14 +750,14 @@
   </si>
   <si>
     <t>図書No</t>
-    <rPh sb="5" eb="7">
+    <rPh sb="0" eb="4">
       <t>キゴウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>数量</t>
-    <rPh sb="0" eb="4">
+    <rPh sb="0" eb="2">
       <t>ショウヒンガゾウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -1005,6 +1001,14 @@
       <t>ミワ</t>
     </rPh>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ORDER_ITEM_NO</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IDX_ORDER_ITEM_NO</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1880,7 +1884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1993,9 +1997,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2017,58 +2099,85 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2079,53 +2188,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2133,95 +2215,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -2657,191 +2664,191 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="14" width="9" style="112"/>
-    <col min="15" max="15" width="4.5" style="112" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="112"/>
+    <col min="1" max="14" width="9" style="56"/>
+    <col min="15" max="15" width="4.5" style="56" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="111"/>
+      <c r="A1" s="55"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="115"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="5" spans="1:15" ht="97.5" customHeight="1">
-      <c r="A5" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="115"/>
+      <c r="A5" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="28.5">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="115"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15" ht="71.25" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="115"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="11" spans="1:15" ht="17.25">
-      <c r="A11" s="56" t="str">
+      <c r="A11" s="82" t="str">
         <f>"第"&amp;TEXT(MAX(更新履歴!A:A),"0.0.0?")&amp;"版"</f>
         <v>第0.0.1 版</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="115"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="57"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="117">
+      <c r="A14" s="66">
         <f>MAX(更新履歴!B:B)</f>
         <v>44604</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="118"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="58"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="E16" s="119" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" s="120"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="122" t="s">
+      <c r="E16" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="125"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="59"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="E17" s="126" t="s">
+      <c r="E17" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="127" t="s">
+      <c r="G17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="126" t="s">
+      <c r="H17" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="127" t="s">
+      <c r="I17" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="127" t="s">
+      <c r="J17" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="128"/>
+      <c r="K17" s="62"/>
     </row>
     <row r="18" spans="1:15" ht="50.25" customHeight="1">
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="131"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="65"/>
     </row>
     <row r="21" spans="1:15" ht="21">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2879,22 +2886,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="25" t="s">
@@ -2906,19 +2913,19 @@
       <c r="C3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="26">
@@ -2928,360 +2935,372 @@
         <v>44604</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="26"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="26"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="26"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="26"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="26"/>
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="26"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="26"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="26"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="26"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="26"/>
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="26"/>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="26"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="26"/>
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="63"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="26"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="26"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="63"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="26"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="26"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="26"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="26"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="63"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" s="27" customFormat="1">
       <c r="A24" s="26"/>
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
     </row>
     <row r="25" spans="1:14" s="27" customFormat="1">
       <c r="A25" s="26"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D13:N13"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="D3:N3"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="D12:N12"/>
     <mergeCell ref="D25:N25"/>
     <mergeCell ref="D14:N14"/>
     <mergeCell ref="D15:N15"/>
@@ -3294,18 +3313,6 @@
     <mergeCell ref="D22:N22"/>
     <mergeCell ref="D23:N23"/>
     <mergeCell ref="D24:N24"/>
-    <mergeCell ref="D13:N13"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="D3:N3"/>
-    <mergeCell ref="D4:N4"/>
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="D6:N6"/>
-    <mergeCell ref="D7:N7"/>
-    <mergeCell ref="D8:N8"/>
-    <mergeCell ref="D9:N9"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N11"/>
-    <mergeCell ref="D12:N12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3340,14 +3347,14 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="80"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="91"/>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
@@ -3359,29 +3366,29 @@
       <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="95"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3391,14 +3398,14 @@
       <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="80"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="91"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -3408,19 +3415,19 @@
       <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="80"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="91"/>
       <c r="F6" s="5"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="6" t="s">
@@ -3436,59 +3443,59 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
@@ -3520,10 +3527,10 @@
       <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="74" t="s">
+      <c r="J15" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="75"/>
+      <c r="K15" s="108"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="2">
@@ -3531,10 +3538,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>53</v>
@@ -3547,8 +3554,8 @@
         <v>52</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="112"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="2">
@@ -3556,10 +3563,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>54</v>
@@ -3572,8 +3579,8 @@
         <v>48</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="112"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="2">
@@ -3581,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>53</v>
@@ -3597,8 +3604,8 @@
         <v>48</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="112"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="2">
@@ -3606,10 +3613,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>53</v>
@@ -3622,8 +3629,8 @@
         <v>48</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="77"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
     </row>
     <row r="20" spans="2:11" ht="14.25" customHeight="1">
       <c r="B20" s="2">
@@ -3631,10 +3638,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>53</v>
@@ -3647,8 +3654,8 @@
         <v>48</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="79"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="2">
@@ -3656,10 +3663,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>53</v>
@@ -3672,8 +3679,8 @@
         <v>48</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="110"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="2">
@@ -3681,10 +3688,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>53</v>
@@ -3697,8 +3704,8 @@
         <v>48</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="2">
@@ -3706,10 +3713,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>53</v>
@@ -3722,8 +3729,8 @@
         <v>48</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="2">
@@ -3731,10 +3738,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>53</v>
@@ -3747,8 +3754,8 @@
         <v>48</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="110"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="2">
@@ -3756,10 +3763,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>53</v>
@@ -3772,8 +3779,8 @@
         <v>48</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="2">
@@ -3781,10 +3788,10 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>50</v>
@@ -3795,8 +3802,8 @@
         <v>48</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="110"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="2">
@@ -3807,7 +3814,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>45</v>
@@ -3820,8 +3827,8 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="110"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="2">
@@ -3832,7 +3839,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>46</v>
@@ -3843,8 +3850,8 @@
         <v>48</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="112"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="2">
@@ -3855,7 +3862,7 @@
         <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>47</v>
@@ -3868,8 +3875,8 @@
       <c r="I29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="76"/>
-      <c r="K29" s="77"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="112"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="2">
@@ -3880,7 +3887,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>46</v>
@@ -3891,8 +3898,8 @@
         <v>48</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="112"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="2">
@@ -3903,7 +3910,7 @@
         <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>47</v>
@@ -3916,8 +3923,8 @@
       <c r="I31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="112"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="2" t="str">
@@ -3931,8 +3938,8 @@
       <c r="G32" s="12"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="77"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="112"/>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" s="2" t="str">
@@ -3946,8 +3953,8 @@
       <c r="G33" s="12"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="77"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="112"/>
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="2" t="str">
@@ -3961,8 +3968,8 @@
       <c r="G34" s="12"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="77"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="112"/>
     </row>
     <row r="35" spans="1:11">
       <c r="B35" s="2" t="str">
@@ -3976,8 +3983,8 @@
       <c r="G35" s="12"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="77"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="112"/>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="2" t="str">
@@ -3991,8 +3998,8 @@
       <c r="G36" s="12"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="77"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="112"/>
     </row>
     <row r="37" spans="1:11">
       <c r="B37" s="2" t="str">
@@ -4006,8 +4013,8 @@
       <c r="G37" s="12"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="77"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="112"/>
     </row>
     <row r="38" spans="1:11">
       <c r="B38" s="2" t="str">
@@ -4021,8 +4028,8 @@
       <c r="G38" s="12"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="77"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="112"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="4" t="s">
@@ -4036,11 +4043,11 @@
       <c r="C41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="72"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="117"/>
       <c r="G41" s="29" t="s">
         <v>23</v>
       </c>
@@ -4053,13 +4060,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="66"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="121"/>
       <c r="G42" s="28" t="s">
         <v>52</v>
       </c>
@@ -4070,18 +4077,18 @@
     <row r="43" spans="1:11">
       <c r="B43" s="14"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="66"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="121"/>
       <c r="G43" s="28"/>
       <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:11">
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="66"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
       <c r="G44" s="28"/>
       <c r="H44" s="14"/>
     </row>
@@ -4097,114 +4104,71 @@
       <c r="C47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="70" t="s">
+      <c r="D47" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="73" t="s">
+      <c r="E47" s="116"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="74" t="s">
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="K47" s="75"/>
+      <c r="K47" s="108"/>
     </row>
     <row r="48" spans="1:11">
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="69"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="110"/>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="110"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="69"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="110"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="69"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="109"/>
+      <c r="K51" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B8:J12"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
     <mergeCell ref="D51:F51"/>
     <mergeCell ref="G51:I51"/>
     <mergeCell ref="J51:K51"/>
@@ -4221,6 +4185,49 @@
     <mergeCell ref="G47:I47"/>
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B8:J12"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4255,14 +4262,14 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="80"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="91"/>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
@@ -4274,29 +4281,29 @@
       <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="95"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
@@ -4306,14 +4313,14 @@
       <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="80"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="91"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -4323,19 +4330,19 @@
       <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="80"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="91"/>
       <c r="F6" s="5"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="6" t="s">
@@ -4351,59 +4358,59 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
@@ -4435,10 +4442,10 @@
       <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="74" t="s">
+      <c r="J15" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="75"/>
+      <c r="K15" s="108"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="2">
@@ -4446,24 +4453,24 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
       <c r="H16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="76" t="s">
+      <c r="J16" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="77"/>
+      <c r="K16" s="112"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="2">
@@ -4471,24 +4478,24 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="10">
         <v>32</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="110"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="2">
@@ -4496,24 +4503,24 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="10">
         <v>32</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="110"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="2">
@@ -4521,24 +4528,24 @@
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="10">
         <v>32</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="110"/>
     </row>
     <row r="20" spans="2:11" s="46" customFormat="1">
       <c r="B20" s="43">
@@ -4546,13 +4553,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="44">
         <v>32</v>
@@ -4562,8 +4569,8 @@
         <v>48</v>
       </c>
       <c r="I20" s="43"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="97"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="123"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="2">
@@ -4571,20 +4578,22 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="43" t="s">
+        <v>48</v>
+      </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="110"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="2">
@@ -4592,13 +4601,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="10">
         <v>128</v>
@@ -4606,8 +4615,8 @@
       <c r="G22" s="12"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="2">
@@ -4615,13 +4624,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="12"/>
@@ -4629,8 +4638,8 @@
         <v>48</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="2">
@@ -4638,13 +4647,13 @@
         <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" s="10">
         <v>128</v>
@@ -4654,8 +4663,8 @@
         <v>48</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="110"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="2">
@@ -4663,13 +4672,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="10">
         <v>16</v>
@@ -4679,8 +4688,8 @@
         <v>48</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="2">
@@ -4691,7 +4700,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>45</v>
@@ -4704,8 +4713,8 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="110"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="2">
@@ -4716,7 +4725,7 @@
         <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>46</v>
@@ -4727,8 +4736,8 @@
         <v>48</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="110"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="2">
@@ -4739,7 +4748,7 @@
         <v>42</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>47</v>
@@ -4752,8 +4761,8 @@
       <c r="I28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="110"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="2">
@@ -4764,7 +4773,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>46</v>
@@ -4775,8 +4784,8 @@
         <v>48</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="110"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="2">
@@ -4787,7 +4796,7 @@
         <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>47</v>
@@ -4800,8 +4809,8 @@
       <c r="I30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="110"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="2" t="str">
@@ -4815,8 +4824,8 @@
       <c r="G31" s="12"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="110"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="2" t="str">
@@ -4830,8 +4839,8 @@
       <c r="G32" s="12"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="69"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="110"/>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" s="2" t="str">
@@ -4845,8 +4854,8 @@
       <c r="G33" s="12"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="110"/>
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="2" t="str">
@@ -4860,8 +4869,8 @@
       <c r="G34" s="12"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="110"/>
     </row>
     <row r="35" spans="1:11">
       <c r="B35" s="2" t="str">
@@ -4875,8 +4884,8 @@
       <c r="G35" s="12"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="110"/>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="2" t="str">
@@ -4890,8 +4899,8 @@
       <c r="G36" s="12"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="69"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="110"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="4" t="s">
@@ -4905,11 +4914,11 @@
       <c r="C39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="70" t="s">
+      <c r="D39" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="71"/>
-      <c r="F39" s="72"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="117"/>
       <c r="G39" s="33" t="s">
         <v>23</v>
       </c>
@@ -4922,10 +4931,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="49" t="s">
         <v>128</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>129</v>
       </c>
       <c r="E40" s="30"/>
       <c r="F40" s="31"/>
@@ -4939,18 +4948,18 @@
     <row r="41" spans="1:11">
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="121"/>
       <c r="G41" s="32"/>
       <c r="H41" s="14"/>
     </row>
     <row r="42" spans="1:11">
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="66"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="121"/>
       <c r="G42" s="32"/>
       <c r="H42" s="14"/>
     </row>
@@ -4966,89 +4975,97 @@
       <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="70" t="s">
+      <c r="D45" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="73" t="s">
+      <c r="E45" s="116"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="74" t="s">
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="K45" s="75"/>
+      <c r="K45" s="108"/>
     </row>
     <row r="46" spans="1:11">
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="69"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="109"/>
+      <c r="K46" s="110"/>
     </row>
     <row r="47" spans="1:11">
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="69"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="110"/>
     </row>
     <row r="48" spans="1:11">
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="69"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="110"/>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B8:J12"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="J46:K46"/>
@@ -5061,32 +5078,24 @@
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="D45:F45"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B8:J12"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5120,14 +5129,14 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="80"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="91"/>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
@@ -5139,29 +5148,29 @@
       <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="95"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
@@ -5171,14 +5180,14 @@
       <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="80"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="91"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -5188,19 +5197,19 @@
       <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="80"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="91"/>
       <c r="F6" s="5"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="6" t="s">
@@ -5216,59 +5225,59 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
@@ -5300,10 +5309,10 @@
       <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="74" t="s">
+      <c r="J15" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="75"/>
+      <c r="K15" s="108"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="2">
@@ -5311,10 +5320,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>50</v>
@@ -5325,10 +5334,10 @@
         <v>52</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="76" t="s">
+      <c r="J16" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="77"/>
+      <c r="K16" s="112"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="2">
@@ -5336,10 +5345,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>53</v>
@@ -5352,8 +5361,8 @@
         <v>48</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="112"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="2">
@@ -5361,10 +5370,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>50</v>
@@ -5375,8 +5384,8 @@
         <v>48</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="110"/>
     </row>
     <row r="19" spans="2:11" s="46" customFormat="1">
       <c r="B19" s="43">
@@ -5384,10 +5393,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>45</v>
@@ -5398,8 +5407,8 @@
         <v>48</v>
       </c>
       <c r="I19" s="43"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="100"/>
+      <c r="J19" s="129"/>
+      <c r="K19" s="130"/>
     </row>
     <row r="20" spans="2:11" s="46" customFormat="1">
       <c r="B20" s="43">
@@ -5407,10 +5416,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>47</v>
@@ -5421,8 +5430,8 @@
         <v>48</v>
       </c>
       <c r="I20" s="43"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="100"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="130"/>
     </row>
     <row r="21" spans="2:11" ht="14.25" customHeight="1">
       <c r="B21" s="2">
@@ -5433,7 +5442,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>45</v>
@@ -5446,8 +5455,8 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="98"/>
-      <c r="K21" s="69"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="110"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="2">
@@ -5458,7 +5467,7 @@
         <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>46</v>
@@ -5469,8 +5478,8 @@
         <v>48</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="2">
@@ -5481,7 +5490,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>47</v>
@@ -5494,8 +5503,8 @@
       <c r="I23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="2">
@@ -5506,7 +5515,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>46</v>
@@ -5529,7 +5538,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>47</v>
@@ -5542,8 +5551,8 @@
       <c r="I25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="2" t="str">
@@ -5572,8 +5581,8 @@
       <c r="G27" s="12"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="110"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="2" t="str">
@@ -5587,8 +5596,8 @@
       <c r="G28" s="12"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="110"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="2" t="str">
@@ -5602,8 +5611,8 @@
       <c r="G29" s="12"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="110"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="2" t="str">
@@ -5617,8 +5626,8 @@
       <c r="G30" s="12"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="110"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="2" t="str">
@@ -5632,8 +5641,8 @@
       <c r="G31" s="12"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="110"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="2" t="str">
@@ -5647,8 +5656,8 @@
       <c r="G32" s="12"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="69"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="110"/>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" s="2" t="str">
@@ -5662,8 +5671,8 @@
       <c r="G33" s="12"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="110"/>
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="2" t="str">
@@ -5677,8 +5686,8 @@
       <c r="G34" s="12"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="110"/>
     </row>
     <row r="35" spans="1:11">
       <c r="B35" s="2" t="str">
@@ -5692,8 +5701,8 @@
       <c r="G35" s="12"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="110"/>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="2" t="str">
@@ -5707,8 +5716,8 @@
       <c r="G36" s="12"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="69"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="110"/>
     </row>
     <row r="37" spans="1:11">
       <c r="B37" s="2" t="str">
@@ -5722,8 +5731,8 @@
       <c r="G37" s="12"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="69"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="110"/>
     </row>
     <row r="38" spans="1:11">
       <c r="B38" s="2" t="str">
@@ -5737,8 +5746,8 @@
       <c r="G38" s="12"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="69"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="110"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" s="2" t="str">
@@ -5752,8 +5761,8 @@
       <c r="G39" s="12"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="69"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="110"/>
     </row>
     <row r="40" spans="1:11">
       <c r="B40" s="2" t="str">
@@ -5767,8 +5776,8 @@
       <c r="G40" s="12"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="69"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="110"/>
     </row>
     <row r="41" spans="1:11">
       <c r="B41" s="2" t="str">
@@ -5782,8 +5791,8 @@
       <c r="G41" s="12"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="69"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="110"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="4" t="s">
@@ -5797,11 +5806,11 @@
       <c r="C44" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="72"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="117"/>
       <c r="G44" s="35" t="s">
         <v>23</v>
       </c>
@@ -5814,10 +5823,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="49" t="s">
         <v>140</v>
-      </c>
-      <c r="D45" s="49" t="s">
-        <v>141</v>
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37"/>
@@ -5833,22 +5842,22 @@
         <v>2</v>
       </c>
       <c r="C46" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="65"/>
-      <c r="F46" s="66"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="121"/>
       <c r="G46" s="34"/>
       <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:11">
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="121"/>
       <c r="G47" s="34"/>
       <c r="H47" s="14"/>
     </row>
@@ -5864,91 +5873,134 @@
       <c r="C50" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="70" t="s">
+      <c r="D50" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="71"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73" t="s">
+      <c r="E50" s="116"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="73"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="74" t="s">
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="K50" s="75"/>
+      <c r="K50" s="108"/>
     </row>
     <row r="51" spans="1:11">
       <c r="B51" s="14">
         <v>1</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="104"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="K51" s="77"/>
+        <v>143</v>
+      </c>
+      <c r="D51" s="119" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="120"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" s="112"/>
     </row>
     <row r="52" spans="1:11">
       <c r="B52" s="14">
         <v>2</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52" s="65"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" s="102"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="K52" s="77"/>
+        <v>144</v>
+      </c>
+      <c r="D52" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="120"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="124" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" s="125"/>
+      <c r="I52" s="126"/>
+      <c r="J52" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="K52" s="112"/>
     </row>
     <row r="53" spans="1:11">
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="69"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="109"/>
+      <c r="K53" s="110"/>
     </row>
     <row r="54" spans="1:11">
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="69"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B8:J12"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D46:F46"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="D54:F54"/>
@@ -5965,49 +6017,6 @@
     <mergeCell ref="J51:K51"/>
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B8:J12"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6042,14 +6051,14 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="80"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="91"/>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
@@ -6061,29 +6070,29 @@
       <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="95"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
@@ -6093,14 +6102,14 @@
       <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="80"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="91"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -6110,19 +6119,19 @@
       <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="80"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="91"/>
       <c r="F6" s="5"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="6" t="s">
@@ -6138,59 +6147,59 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
@@ -6222,10 +6231,10 @@
       <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="74" t="s">
+      <c r="J15" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="75"/>
+      <c r="K15" s="108"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="2">
@@ -6233,13 +6242,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
@@ -6247,8 +6256,8 @@
         <v>48</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="112"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="2">
@@ -6256,24 +6265,22 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="10">
-        <v>32</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="12"/>
       <c r="H17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="110"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="2">
@@ -6281,10 +6288,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>50</v>
@@ -6295,33 +6302,33 @@
         <v>48</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="110"/>
     </row>
     <row r="19" spans="2:11" ht="90.75" customHeight="1">
-      <c r="B19" s="107">
+      <c r="B19" s="51">
         <f>IF(C19="","",ROW()-15)</f>
         <v>4</v>
       </c>
-      <c r="C19" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="107" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="108" t="s">
+      <c r="C19" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="107" t="s">
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="107"/>
-      <c r="J19" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="K19" s="106"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="131" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" s="132"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="2">
@@ -6329,10 +6336,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>45</v>
@@ -6343,8 +6350,8 @@
         <v>48</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="110"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="2">
@@ -6352,13 +6359,13 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="10">
         <v>32</v>
@@ -6368,8 +6375,8 @@
         <v>48</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="110"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="2">
@@ -6377,13 +6384,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="10">
         <v>128</v>
@@ -6391,8 +6398,8 @@
       <c r="G22" s="12"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="2">
@@ -6400,13 +6407,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F23" s="10">
         <v>32</v>
@@ -6416,8 +6423,8 @@
         <v>48</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="2">
@@ -6425,10 +6432,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>47</v>
@@ -6439,8 +6446,8 @@
         <v>48</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="110"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="2">
@@ -6448,10 +6455,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>47</v>
@@ -6462,8 +6469,8 @@
         <v>48</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="2">
@@ -6471,13 +6478,13 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="10">
         <v>32</v>
@@ -6487,8 +6494,8 @@
         <v>48</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="110"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="2">
@@ -6496,13 +6503,13 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="10">
         <v>32</v>
@@ -6512,8 +6519,8 @@
         <v>48</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="110"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="2">
@@ -6521,13 +6528,13 @@
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" s="10">
         <v>128</v>
@@ -6537,8 +6544,8 @@
         <v>48</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="110"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="2">
@@ -6546,13 +6553,13 @@
         <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" s="10">
         <v>16</v>
@@ -6562,8 +6569,8 @@
         <v>48</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="110"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="2">
@@ -6571,13 +6578,13 @@
         <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="10">
         <v>16</v>
@@ -6587,8 +6594,8 @@
         <v>48</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="110"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="2">
@@ -6596,13 +6603,13 @@
         <v>16</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F31" s="10">
         <v>128</v>
@@ -6612,8 +6619,8 @@
         <v>48</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="110"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="2">
@@ -6621,13 +6628,13 @@
         <v>17</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="10">
         <v>128</v>
@@ -6637,8 +6644,8 @@
         <v>48</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="69"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="110"/>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" s="2">
@@ -6646,13 +6653,13 @@
         <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="10">
         <v>128</v>
@@ -6662,8 +6669,8 @@
         <v>48</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="110"/>
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="2">
@@ -6674,7 +6681,7 @@
         <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>45</v>
@@ -6687,8 +6694,8 @@
       <c r="I34" s="2">
         <v>0</v>
       </c>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="110"/>
     </row>
     <row r="35" spans="1:11">
       <c r="B35" s="2">
@@ -6699,7 +6706,7 @@
         <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>46</v>
@@ -6710,8 +6717,8 @@
         <v>48</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="110"/>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="2">
@@ -6722,7 +6729,7 @@
         <v>42</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="21" t="s">
         <v>47</v>
@@ -6735,8 +6742,8 @@
       <c r="I36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J36" s="68"/>
-      <c r="K36" s="69"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="110"/>
     </row>
     <row r="37" spans="1:11">
       <c r="B37" s="2">
@@ -6747,7 +6754,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>46</v>
@@ -6758,8 +6765,8 @@
         <v>48</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="69"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="110"/>
     </row>
     <row r="38" spans="1:11">
       <c r="B38" s="2">
@@ -6770,7 +6777,7 @@
         <v>44</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>47</v>
@@ -6783,8 +6790,8 @@
       <c r="I38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="68"/>
-      <c r="K38" s="69"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="110"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" s="2" t="str">
@@ -6798,8 +6805,8 @@
       <c r="G39" s="12"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="69"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="110"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="4" t="s">
@@ -6813,11 +6820,11 @@
       <c r="C42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="117"/>
       <c r="G42" s="33" t="s">
         <v>23</v>
       </c>
@@ -6830,10 +6837,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="49" t="s">
         <v>185</v>
-      </c>
-      <c r="D43" s="49" t="s">
-        <v>186</v>
       </c>
       <c r="E43" s="30"/>
       <c r="F43" s="31"/>
@@ -6845,20 +6852,30 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="14"/>
+      <c r="B44" s="14">
+        <v>2</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="66"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="121"/>
       <c r="G45" s="32"/>
       <c r="H45" s="14"/>
     </row>
@@ -6874,100 +6891,127 @@
       <c r="C48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73" t="s">
+      <c r="E48" s="116"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="74" t="s">
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="75"/>
+      <c r="K48" s="108"/>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="14">
         <v>1</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D49" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="H49" s="102"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="K49" s="77"/>
+      <c r="D49" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="E49" s="120"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="124" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="125"/>
+      <c r="I49" s="126"/>
+      <c r="J49" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="K49" s="112"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="14">
         <v>2</v>
       </c>
       <c r="C50" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="D50" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="K50" s="77"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50" s="112"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="76"/>
-      <c r="K51" s="77"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="112"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="77"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="127"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B8:J12"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="G49:I49"/>
     <mergeCell ref="J49:K49"/>
@@ -6982,42 +7026,15 @@
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B8:J12"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7051,14 +7068,14 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="80"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="91"/>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
@@ -7070,29 +7087,29 @@
       <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J3" s="95"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
@@ -7102,14 +7119,14 @@
       <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="80"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="91"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -7119,19 +7136,19 @@
       <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="80"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="91"/>
       <c r="F6" s="5"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="6" t="s">
@@ -7147,59 +7164,59 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
@@ -7231,10 +7248,10 @@
       <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="74" t="s">
+      <c r="J15" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="75"/>
+      <c r="K15" s="108"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="2">
@@ -7242,10 +7259,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>53</v>
@@ -7258,8 +7275,8 @@
         <v>48</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="110"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="2">
@@ -7267,10 +7284,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>53</v>
@@ -7283,10 +7300,10 @@
         <v>48</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="69"/>
+      <c r="J17" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="110"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="2">
@@ -7294,10 +7311,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>53</v>
@@ -7310,10 +7327,10 @@
         <v>48</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" s="69"/>
+      <c r="J18" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="110"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="2">
@@ -7321,10 +7338,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>53</v>
@@ -7337,10 +7354,10 @@
         <v>48</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="69"/>
+      <c r="J19" s="109" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" s="110"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="2">
@@ -7351,7 +7368,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>45</v>
@@ -7364,8 +7381,8 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="110"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="2">
@@ -7376,7 +7393,7 @@
         <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>46</v>
@@ -7387,8 +7404,8 @@
         <v>48</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="110"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="2">
@@ -7399,7 +7416,7 @@
         <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>47</v>
@@ -7412,8 +7429,8 @@
       <c r="I22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="2">
@@ -7424,7 +7441,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>46</v>
@@ -7435,8 +7452,8 @@
         <v>48</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="2">
@@ -7447,7 +7464,7 @@
         <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>47</v>
@@ -7460,8 +7477,8 @@
       <c r="I24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="110"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="2" t="str">
@@ -7475,8 +7492,8 @@
       <c r="G25" s="12"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="2" t="str">
@@ -7490,8 +7507,8 @@
       <c r="G26" s="12"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="110"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="2" t="str">
@@ -7505,8 +7522,8 @@
       <c r="G27" s="12"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="110"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="2" t="str">
@@ -7520,8 +7537,8 @@
       <c r="G28" s="12"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="110"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="2" t="str">
@@ -7535,8 +7552,8 @@
       <c r="G29" s="12"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="110"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="2" t="str">
@@ -7550,8 +7567,8 @@
       <c r="G30" s="12"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="110"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="2" t="str">
@@ -7565,8 +7582,8 @@
       <c r="G31" s="12"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="110"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="2" t="str">
@@ -7580,8 +7597,8 @@
       <c r="G32" s="12"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="69"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="110"/>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" s="2" t="str">
@@ -7595,8 +7612,8 @@
       <c r="G33" s="12"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="110"/>
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="2" t="str">
@@ -7610,8 +7627,8 @@
       <c r="G34" s="12"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="110"/>
     </row>
     <row r="35" spans="1:11">
       <c r="B35" s="2" t="str">
@@ -7625,8 +7642,8 @@
       <c r="G35" s="12"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="110"/>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="2" t="str">
@@ -7640,8 +7657,8 @@
       <c r="G36" s="12"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="69"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="110"/>
     </row>
     <row r="37" spans="1:11">
       <c r="B37" s="2" t="str">
@@ -7655,8 +7672,8 @@
       <c r="G37" s="12"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="69"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="110"/>
     </row>
     <row r="38" spans="1:11">
       <c r="B38" s="2" t="str">
@@ -7670,8 +7687,8 @@
       <c r="G38" s="12"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="69"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="110"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" s="2" t="str">
@@ -7685,8 +7702,8 @@
       <c r="G39" s="12"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="69"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="110"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="4" t="s">
@@ -7700,11 +7717,11 @@
       <c r="C42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="117"/>
       <c r="G42" s="39" t="s">
         <v>23</v>
       </c>
@@ -7717,10 +7734,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="41"/>
       <c r="F43" s="42"/>
@@ -7730,18 +7747,18 @@
     <row r="44" spans="1:11">
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="66"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
       <c r="G44" s="38"/>
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:11">
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="66"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="121"/>
       <c r="G45" s="38"/>
       <c r="H45" s="14"/>
     </row>
@@ -7757,80 +7774,107 @@
       <c r="C48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73" t="s">
+      <c r="E48" s="116"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="74" t="s">
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="75"/>
+      <c r="K48" s="108"/>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="110"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="69"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="110"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="69"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="109"/>
+      <c r="K51" s="110"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="69"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B8:J12"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="G49:I49"/>
     <mergeCell ref="J49:K49"/>
@@ -7845,42 +7889,15 @@
     <mergeCell ref="D48:F48"/>
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B8:J12"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7916,12 +7933,12 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
@@ -7931,12 +7948,12 @@
       <c r="J2" s="93"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
@@ -7946,12 +7963,12 @@
       <c r="J3" s="95"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
@@ -7961,12 +7978,12 @@
       <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
@@ -7976,17 +7993,17 @@
       <c r="J5" s="95"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="5"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="97"/>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="6" t="s">
@@ -8002,59 +8019,59 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="103"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
@@ -8086,10 +8103,10 @@
       <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="74" t="s">
+      <c r="J15" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="75"/>
+      <c r="K15" s="108"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="2" t="str">
@@ -8103,8 +8120,8 @@
       <c r="G16" s="12"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="110"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="2" t="str">
@@ -8118,8 +8135,8 @@
       <c r="G17" s="12"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="110"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="2" t="str">
@@ -8133,8 +8150,8 @@
       <c r="G18" s="12"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="110"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="2" t="str">
@@ -8148,8 +8165,8 @@
       <c r="G19" s="12"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="110"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="2" t="str">
@@ -8163,8 +8180,8 @@
       <c r="G20" s="12"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="110"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="2" t="str">
@@ -8178,8 +8195,8 @@
       <c r="G21" s="12"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="110"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="2" t="str">
@@ -8193,8 +8210,8 @@
       <c r="G22" s="12"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="2" t="str">
@@ -8208,8 +8225,8 @@
       <c r="G23" s="12"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="2" t="str">
@@ -8223,8 +8240,8 @@
       <c r="G24" s="12"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="110"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="2" t="str">
@@ -8238,8 +8255,8 @@
       <c r="G25" s="12"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="110"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="2" t="str">
@@ -8253,8 +8270,8 @@
       <c r="G26" s="12"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="110"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="2" t="str">
@@ -8268,8 +8285,8 @@
       <c r="G27" s="12"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="110"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="2" t="str">
@@ -8283,8 +8300,8 @@
       <c r="G28" s="12"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="69"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="110"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="2" t="str">
@@ -8298,8 +8315,8 @@
       <c r="G29" s="12"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="110"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="2" t="str">
@@ -8313,8 +8330,8 @@
       <c r="G30" s="12"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="69"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="110"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="2" t="str">
@@ -8328,8 +8345,8 @@
       <c r="G31" s="12"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="110"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="2" t="str">
@@ -8343,8 +8360,8 @@
       <c r="G32" s="12"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="69"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="110"/>
     </row>
     <row r="33" spans="1:11">
       <c r="B33" s="2" t="str">
@@ -8358,8 +8375,8 @@
       <c r="G33" s="12"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="69"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="110"/>
     </row>
     <row r="34" spans="1:11">
       <c r="B34" s="2" t="str">
@@ -8373,8 +8390,8 @@
       <c r="G34" s="12"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="69"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="110"/>
     </row>
     <row r="35" spans="1:11">
       <c r="B35" s="2" t="str">
@@ -8388,8 +8405,8 @@
       <c r="G35" s="12"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="69"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="110"/>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="2" t="str">
@@ -8403,8 +8420,8 @@
       <c r="G36" s="12"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="69"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="110"/>
     </row>
     <row r="37" spans="1:11">
       <c r="B37" s="2" t="str">
@@ -8418,8 +8435,8 @@
       <c r="G37" s="12"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="69"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="110"/>
     </row>
     <row r="38" spans="1:11">
       <c r="B38" s="2" t="str">
@@ -8433,8 +8450,8 @@
       <c r="G38" s="12"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="69"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="110"/>
     </row>
     <row r="39" spans="1:11">
       <c r="B39" s="2" t="str">
@@ -8448,8 +8465,8 @@
       <c r="G39" s="12"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="69"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="110"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="4" t="s">
@@ -8463,11 +8480,11 @@
       <c r="C42" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="117"/>
       <c r="G42" s="20" t="s">
         <v>23</v>
       </c>
@@ -8487,18 +8504,18 @@
     <row r="44" spans="1:11">
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="66"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
       <c r="G44" s="19"/>
       <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:11">
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="66"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="121"/>
       <c r="G45" s="19"/>
       <c r="H45" s="14"/>
     </row>
@@ -8514,78 +8531,107 @@
       <c r="C48" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="71"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73" t="s">
+      <c r="E48" s="116"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="74" t="s">
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="75"/>
+      <c r="K48" s="108"/>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="69"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="110"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="69"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="110"/>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="69"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="109"/>
+      <c r="K51" s="110"/>
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="67"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="69"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="I2:J2"/>
@@ -8602,42 +8648,13 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
